--- a/BalanceSheet/FANG_bal.xlsx
+++ b/BalanceSheet/FANG_bal.xlsx
@@ -509,10 +509,10 @@
         <v>34000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>36000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>37000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>45000000.0</v>
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>71000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>32000000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>189000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>245000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7000000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>233000000.0</v>
@@ -3882,19 +3882,19 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-140000000.0</v>
+        <v>710000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-304000000.0</v>
+        <v>903000000.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-681000000.0</v>
+        <v>1208000000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>83000000.0</v>
+        <v>1888000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-124000000.0</v>
+        <v>1744000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>2019000000.0</v>
